--- a/data/Fig_S1.xlsx
+++ b/data/Fig_S1.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC76244-79BA-4A9F-B531-7E6C273EAF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,6 +126,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>278892</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65437AD9-88A9-48FB-B6FE-FAB920924BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6984492" cy="3707892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,19 +445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -464,7 +521,7 @@
         <v>10562</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -496,7 +553,7 @@
         <v>4979</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -528,7 +585,7 @@
         <v>17359</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,7 +617,7 @@
         <v>25649</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -596,4 +653,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F462F0AC-FA7F-403A-80FA-AC49212B5ECB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>